--- a/logs/2024/Oorlog en vrede - Leo Tolstoj.xlsx
+++ b/logs/2024/Oorlog en vrede - Leo Tolstoj.xlsx
@@ -430,7 +430,7 @@
         <v>45301</v>
       </c>
       <c r="B1" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45304</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45312</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45320</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45321</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45361</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45362</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45363</v>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45364</v>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>45371</v>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>45373</v>
       </c>
       <c r="B11" t="n">
-        <v>67</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>45374</v>
       </c>
       <c r="B12" t="n">
-        <v>72</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>45375</v>
       </c>
       <c r="B13" t="n">
-        <v>74</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>45376</v>
       </c>
       <c r="B14" t="n">
-        <v>84</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>45377</v>
       </c>
       <c r="B15" t="n">
-        <v>88</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>45382</v>
       </c>
       <c r="B16" t="n">
-        <v>95</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>45389</v>
       </c>
       <c r="B17" t="n">
-        <v>104</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>45390</v>
       </c>
       <c r="B18" t="n">
-        <v>107</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>45395</v>
       </c>
       <c r="B19" t="n">
-        <v>113</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>45508</v>
       </c>
       <c r="B20" t="n">
-        <v>114</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>45509</v>
       </c>
       <c r="B21" t="n">
-        <v>118</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>45510</v>
       </c>
       <c r="B22" t="n">
-        <v>125</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>45512</v>
       </c>
       <c r="B23" t="n">
-        <v>127</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>45513</v>
       </c>
       <c r="B24" t="n">
-        <v>132</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>45516</v>
       </c>
       <c r="B25" t="n">
-        <v>140</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26">
@@ -630,7 +630,7 @@
         <v>45517</v>
       </c>
       <c r="B26" t="n">
-        <v>146</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27">
@@ -638,7 +638,7 @@
         <v>45518</v>
       </c>
       <c r="B27" t="n">
-        <v>154</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28">
@@ -646,7 +646,7 @@
         <v>45519</v>
       </c>
       <c r="B28" t="n">
-        <v>161</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29">
@@ -654,7 +654,7 @@
         <v>45520</v>
       </c>
       <c r="B29" t="n">
-        <v>165</v>
+        <v>866</v>
       </c>
     </row>
     <row r="30">
@@ -662,7 +662,7 @@
         <v>45521</v>
       </c>
       <c r="B30" t="n">
-        <v>180</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31">
@@ -670,7 +670,7 @@
         <v>45522</v>
       </c>
       <c r="B31" t="n">
-        <v>193</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32">
@@ -678,7 +678,7 @@
         <v>45523</v>
       </c>
       <c r="B32" t="n">
-        <v>198</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         <v>45524</v>
       </c>
       <c r="B33" t="n">
-        <v>206</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="34">
@@ -694,7 +694,7 @@
         <v>45526</v>
       </c>
       <c r="B34" t="n">
-        <v>217</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="35">
@@ -702,7 +702,7 @@
         <v>45527</v>
       </c>
       <c r="B35" t="n">
-        <v>226</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="36">
@@ -710,7 +710,7 @@
         <v>45528</v>
       </c>
       <c r="B36" t="n">
-        <v>232</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="37">
@@ -718,7 +718,7 @@
         <v>45530</v>
       </c>
       <c r="B37" t="n">
-        <v>234</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="38">
@@ -726,7 +726,7 @@
         <v>45532</v>
       </c>
       <c r="B38" t="n">
-        <v>227</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="39">
@@ -734,7 +734,7 @@
         <v>45534</v>
       </c>
       <c r="B39" t="n">
-        <v>253</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="40">
@@ -742,7 +742,7 @@
         <v>45536</v>
       </c>
       <c r="B40" t="n">
-        <v>257</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="41">
@@ -750,7 +750,7 @@
         <v>45539</v>
       </c>
       <c r="B41" t="n">
-        <v>264</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="42">
@@ -758,7 +758,7 @@
         <v>45540</v>
       </c>
       <c r="B42" t="n">
-        <v>265</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="43">
@@ -766,7 +766,7 @@
         <v>45541</v>
       </c>
       <c r="B43" t="n">
-        <v>278</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="44">
@@ -774,7 +774,7 @@
         <v>45542</v>
       </c>
       <c r="B44" t="n">
-        <v>288</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="45">
@@ -782,7 +782,7 @@
         <v>45544</v>
       </c>
       <c r="B45" t="n">
-        <v>293</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="46">
@@ -790,7 +790,7 @@
         <v>45545</v>
       </c>
       <c r="B46" t="n">
-        <v>297</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="47">
@@ -798,7 +798,7 @@
         <v>45546</v>
       </c>
       <c r="B47" t="n">
-        <v>302</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="48">
@@ -806,7 +806,7 @@
         <v>45548</v>
       </c>
       <c r="B48" t="n">
-        <v>311</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>

--- a/logs/2024/Oorlog en vrede - Leo Tolstoj.xlsx
+++ b/logs/2024/Oorlog en vrede - Leo Tolstoj.xlsx
@@ -726,7 +726,7 @@
         <v>45532</v>
       </c>
       <c r="B38" t="n">
-        <v>1187</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="39">
